--- a/db/dummydata/3_2_standard_sheet.xlsx
+++ b/db/dummydata/3_2_standard_sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="49">
   <si>
     <t>CUSTOMER_ID</t>
   </si>
@@ -100,13 +100,13 @@
     <t>PER_CONTAINER</t>
   </si>
   <si>
-    <t>Ningbo</t>
-  </si>
-  <si>
     <t>fcl_40</t>
   </si>
   <si>
     <t>fcl_40_hq</t>
+  </si>
+  <si>
+    <t>Ningbo</t>
   </si>
   <si>
     <t>lcl</t>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -267,6 +267,9 @@
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -371,6 +374,7 @@
       <c r="W1" s="3"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="4"/>
       <c r="D2" t="s">
         <v>21</v>
       </c>
@@ -419,19 +423,19 @@
         <v>21</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5">
         <v>43174.0</v>
       </c>
       <c r="G3" s="5">
-        <v>43544.0</v>
+        <v>43545.0</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="J3" s="6">
         <v>35.0</v>
@@ -452,10 +456,10 @@
         <v>28</v>
       </c>
       <c r="P3">
-        <v>1220.0</v>
+        <v>2050.0</v>
       </c>
       <c r="Q3">
-        <v>1220.0</v>
+        <v>2050.0</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -463,19 +467,19 @@
         <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5">
         <v>43174.0</v>
       </c>
       <c r="G4" s="5">
-        <v>43544.0</v>
+        <v>43546.0</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="J4" s="6">
         <v>35.0</v>
@@ -496,10 +500,10 @@
         <v>28</v>
       </c>
       <c r="P4">
-        <v>1220.0</v>
+        <v>2050.0</v>
       </c>
       <c r="Q4">
-        <v>1220.0</v>
+        <v>2050.0</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -507,19 +511,19 @@
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5">
         <v>43174.0</v>
       </c>
       <c r="G5" s="5">
-        <v>43545.0</v>
+        <v>43544.0</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="J5" s="6">
         <v>35.0</v>
@@ -540,10 +544,10 @@
         <v>28</v>
       </c>
       <c r="P5">
-        <v>2050.0</v>
+        <v>1220.0</v>
       </c>
       <c r="Q5">
-        <v>2050.0</v>
+        <v>1220.0</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -551,19 +555,19 @@
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5">
         <v>43174.0</v>
       </c>
       <c r="G6" s="5">
-        <v>43545.0</v>
+        <v>43544.0</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J6" s="6">
         <v>35.0</v>
@@ -584,10 +588,10 @@
         <v>28</v>
       </c>
       <c r="P6">
-        <v>1800.0</v>
+        <v>1220.0</v>
       </c>
       <c r="Q6">
-        <v>1800.0</v>
+        <v>1220.0</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -595,7 +599,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5">
         <v>43174.0</v>
@@ -607,7 +611,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J7" s="6">
         <v>35.0</v>
@@ -639,19 +643,19 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>43545.0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="F8" s="5">
-        <v>43174.0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>43546.0</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="J8" s="6">
         <v>35.0</v>
@@ -672,10 +676,10 @@
         <v>28</v>
       </c>
       <c r="P8">
-        <v>2050.0</v>
+        <v>1800.0</v>
       </c>
       <c r="Q8">
-        <v>2050.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -683,7 +687,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5">
         <v>43174.0</v>
@@ -727,7 +731,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="5">
         <v>43174.0</v>
@@ -739,7 +743,7 @@
         <v>24</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J10" s="6">
         <v>35.0</v>
@@ -1712,7 +1716,7 @@
         <v>24</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J29" s="11">
         <v>43.0</v>
@@ -1763,7 +1767,7 @@
         <v>24</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J30" s="11">
         <v>43.0</v>
@@ -1818,7 +1822,7 @@
         <v>24</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J31" s="11">
         <v>43.0</v>
@@ -2380,7 +2384,7 @@
         <v>43541.0</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9" t="s">
         <v>24</v>
@@ -2431,7 +2435,7 @@
         <v>43542.0</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>24</v>
@@ -3817,7 +3821,7 @@
         <v>43546.0</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I69" s="17" t="s">
         <v>24</v>
@@ -3869,7 +3873,7 @@
         <v>43547.0</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I70" s="17" t="s">
         <v>24</v>
@@ -3921,7 +3925,7 @@
         <v>43548.0</v>
       </c>
       <c r="H71" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I71" s="17" t="s">
         <v>24</v>
@@ -3973,7 +3977,7 @@
         <v>43549.0</v>
       </c>
       <c r="H72" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I72" s="17" t="s">
         <v>24</v>
@@ -4025,7 +4029,7 @@
         <v>43550.0</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I73" s="17" t="s">
         <v>24</v>
@@ -4077,7 +4081,7 @@
         <v>43551.0</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I74" s="17" t="s">
         <v>24</v>
@@ -4129,7 +4133,7 @@
         <v>43552.0</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I75" s="17" t="s">
         <v>24</v>
@@ -4181,7 +4185,7 @@
         <v>43546.0</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I76" s="18" t="s">
         <v>39</v>
@@ -4233,7 +4237,7 @@
         <v>43547.0</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I77" s="18" t="s">
         <v>39</v>
@@ -4285,7 +4289,7 @@
         <v>43548.0</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I78" s="18" t="s">
         <v>39</v>
@@ -4337,7 +4341,7 @@
         <v>43549.0</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I79" s="18" t="s">
         <v>39</v>
@@ -4389,7 +4393,7 @@
         <v>43550.0</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I80" s="18" t="s">
         <v>39</v>
@@ -4441,7 +4445,7 @@
         <v>43551.0</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I81" s="18" t="s">
         <v>39</v>
@@ -4493,7 +4497,7 @@
         <v>43552.0</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I82" s="18" t="s">
         <v>39</v>
@@ -4545,7 +4549,7 @@
         <v>43546.0</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I83" s="18" t="s">
         <v>47</v>
@@ -4597,7 +4601,7 @@
         <v>43547.0</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I84" s="18" t="s">
         <v>47</v>
@@ -4649,7 +4653,7 @@
         <v>43548.0</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I85" s="18" t="s">
         <v>47</v>
@@ -4701,7 +4705,7 @@
         <v>43549.0</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I86" s="18" t="s">
         <v>47</v>
@@ -4753,7 +4757,7 @@
         <v>43550.0</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I87" s="18" t="s">
         <v>47</v>
@@ -4805,7 +4809,7 @@
         <v>43551.0</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I88" s="18" t="s">
         <v>47</v>
@@ -4857,7 +4861,7 @@
         <v>43552.0</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I89" s="18" t="s">
         <v>47</v>
@@ -7460,7 +7464,7 @@
         <v>39</v>
       </c>
       <c r="I139" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J139" s="7">
         <v>2.0</v>
@@ -7512,7 +7516,7 @@
         <v>39</v>
       </c>
       <c r="I140" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J140" s="7">
         <v>2.0</v>
@@ -7564,7 +7568,7 @@
         <v>39</v>
       </c>
       <c r="I141" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J141" s="7">
         <v>2.0</v>
@@ -7616,7 +7620,7 @@
         <v>39</v>
       </c>
       <c r="I142" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J142" s="7">
         <v>2.0</v>
@@ -7668,7 +7672,7 @@
         <v>39</v>
       </c>
       <c r="I143" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J143" s="7">
         <v>2.0</v>
@@ -7720,7 +7724,7 @@
         <v>39</v>
       </c>
       <c r="I144" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J144" s="7">
         <v>2.0</v>
@@ -7772,7 +7776,7 @@
         <v>39</v>
       </c>
       <c r="I145" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J145" s="7">
         <v>2.0</v>
@@ -8535,88 +8539,4295 @@
         <v>1500.0</v>
       </c>
     </row>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1">
+      <c r="A160" s="4"/>
+      <c r="D160" t="s">
+        <v>21</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G160" s="5">
+        <v>43544.0</v>
+      </c>
+      <c r="H160" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I160" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J160" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="K160">
+        <v>1000.0</v>
+      </c>
+      <c r="L160" t="s">
+        <v>25</v>
+      </c>
+      <c r="M160" t="s">
+        <v>26</v>
+      </c>
+      <c r="N160" t="s">
+        <v>27</v>
+      </c>
+      <c r="O160" t="s">
+        <v>28</v>
+      </c>
+      <c r="P160">
+        <v>1175.0</v>
+      </c>
+      <c r="Q160">
+        <v>1175.0</v>
+      </c>
+    </row>
+    <row r="161" ht="12.75" customHeight="1">
+      <c r="D161" t="s">
+        <v>21</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F161" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G161" s="5">
+        <v>43545.0</v>
+      </c>
+      <c r="H161" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I161" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J161" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="K161">
+        <v>1000.0</v>
+      </c>
+      <c r="L161" t="s">
+        <v>25</v>
+      </c>
+      <c r="M161" t="s">
+        <v>26</v>
+      </c>
+      <c r="N161" t="s">
+        <v>27</v>
+      </c>
+      <c r="O161" t="s">
+        <v>28</v>
+      </c>
+      <c r="P161">
+        <v>2050.0</v>
+      </c>
+      <c r="Q161">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="162" ht="12.75" customHeight="1">
+      <c r="D162" t="s">
+        <v>21</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F162" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G162" s="5">
+        <v>43546.0</v>
+      </c>
+      <c r="H162" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I162" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J162" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="K162">
+        <v>1000.0</v>
+      </c>
+      <c r="L162" t="s">
+        <v>25</v>
+      </c>
+      <c r="M162" t="s">
+        <v>26</v>
+      </c>
+      <c r="N162" t="s">
+        <v>27</v>
+      </c>
+      <c r="O162" t="s">
+        <v>28</v>
+      </c>
+      <c r="P162">
+        <v>2050.0</v>
+      </c>
+      <c r="Q162">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="163" ht="12.75" customHeight="1">
+      <c r="A163" s="4"/>
+      <c r="D163" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F163" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G163" s="5">
+        <v>43544.0</v>
+      </c>
+      <c r="H163" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J163" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="K163">
+        <v>1000.0</v>
+      </c>
+      <c r="L163" t="s">
+        <v>25</v>
+      </c>
+      <c r="M163" t="s">
+        <v>26</v>
+      </c>
+      <c r="N163" t="s">
+        <v>27</v>
+      </c>
+      <c r="O163" t="s">
+        <v>28</v>
+      </c>
+      <c r="P163">
+        <v>1175.0</v>
+      </c>
+      <c r="Q163">
+        <v>1175.0</v>
+      </c>
+    </row>
+    <row r="164" ht="12.75" customHeight="1">
+      <c r="D164" t="s">
+        <v>21</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G164" s="5">
+        <v>43545.0</v>
+      </c>
+      <c r="H164" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J164" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="K164">
+        <v>1000.0</v>
+      </c>
+      <c r="L164" t="s">
+        <v>25</v>
+      </c>
+      <c r="M164" t="s">
+        <v>26</v>
+      </c>
+      <c r="N164" t="s">
+        <v>27</v>
+      </c>
+      <c r="O164" t="s">
+        <v>28</v>
+      </c>
+      <c r="P164">
+        <v>2050.0</v>
+      </c>
+      <c r="Q164">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="165" ht="12.75" customHeight="1">
+      <c r="D165" t="s">
+        <v>21</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F165" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G165" s="5">
+        <v>43546.0</v>
+      </c>
+      <c r="H165" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J165" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="K165">
+        <v>1000.0</v>
+      </c>
+      <c r="L165" t="s">
+        <v>25</v>
+      </c>
+      <c r="M165" t="s">
+        <v>26</v>
+      </c>
+      <c r="N165" t="s">
+        <v>27</v>
+      </c>
+      <c r="O165" t="s">
+        <v>28</v>
+      </c>
+      <c r="P165">
+        <v>2050.0</v>
+      </c>
+      <c r="Q165">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="166" ht="12.75" customHeight="1">
+      <c r="A166" s="4"/>
+      <c r="D166" t="s">
+        <v>21</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G166" s="5">
+        <v>43544.0</v>
+      </c>
+      <c r="H166" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I166" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J166" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="K166">
+        <v>1000.0</v>
+      </c>
+      <c r="L166" t="s">
+        <v>25</v>
+      </c>
+      <c r="M166" t="s">
+        <v>26</v>
+      </c>
+      <c r="N166" t="s">
+        <v>27</v>
+      </c>
+      <c r="O166" t="s">
+        <v>28</v>
+      </c>
+      <c r="P166">
+        <v>1175.0</v>
+      </c>
+      <c r="Q166">
+        <v>1175.0</v>
+      </c>
+    </row>
+    <row r="167" ht="12.75" customHeight="1">
+      <c r="D167" t="s">
+        <v>21</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F167" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G167" s="5">
+        <v>43545.0</v>
+      </c>
+      <c r="H167" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I167" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J167" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="K167">
+        <v>1000.0</v>
+      </c>
+      <c r="L167" t="s">
+        <v>25</v>
+      </c>
+      <c r="M167" t="s">
+        <v>26</v>
+      </c>
+      <c r="N167" t="s">
+        <v>27</v>
+      </c>
+      <c r="O167" t="s">
+        <v>28</v>
+      </c>
+      <c r="P167">
+        <v>2050.0</v>
+      </c>
+      <c r="Q167">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="168" ht="12.75" customHeight="1">
+      <c r="D168" t="s">
+        <v>21</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F168" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G168" s="5">
+        <v>43546.0</v>
+      </c>
+      <c r="H168" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I168" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J168" s="6">
+        <v>35.0</v>
+      </c>
+      <c r="K168">
+        <v>1000.0</v>
+      </c>
+      <c r="L168" t="s">
+        <v>25</v>
+      </c>
+      <c r="M168" t="s">
+        <v>26</v>
+      </c>
+      <c r="N168" t="s">
+        <v>27</v>
+      </c>
+      <c r="O168" t="s">
+        <v>28</v>
+      </c>
+      <c r="P168">
+        <v>2050.0</v>
+      </c>
+      <c r="Q168">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F169" s="10">
+        <v>43174.0</v>
+      </c>
+      <c r="G169" s="10">
+        <v>43544.0</v>
+      </c>
+      <c r="H169" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I169" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J169" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="K169" s="11">
+        <v>1000.0</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M169" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N169" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O169" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P169" s="11">
+        <v>1175.0</v>
+      </c>
+      <c r="Q169" s="11">
+        <v>1175.0</v>
+      </c>
+      <c r="R169" s="9"/>
+      <c r="S169" s="9"/>
+      <c r="T169" s="9"/>
+      <c r="U169" s="9"/>
+      <c r="V169" s="9"/>
+      <c r="W169" s="9"/>
+      <c r="X169" s="9"/>
+      <c r="Y169" s="9"/>
+      <c r="Z169" s="9"/>
+      <c r="AA169" s="9"/>
+      <c r="AB169" s="9"/>
+      <c r="AC169" s="9"/>
+      <c r="AD169" s="9"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F170" s="10">
+        <v>43174.0</v>
+      </c>
+      <c r="G170" s="10">
+        <v>43545.0</v>
+      </c>
+      <c r="H170" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I170" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J170" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="K170" s="11">
+        <v>1000.0</v>
+      </c>
+      <c r="L170" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M170" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N170" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O170" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P170" s="11">
+        <v>2050.0</v>
+      </c>
+      <c r="Q170" s="11">
+        <v>2050.0</v>
+      </c>
+      <c r="R170" s="9"/>
+      <c r="S170" s="9"/>
+      <c r="T170" s="9"/>
+      <c r="U170" s="9"/>
+      <c r="V170" s="9"/>
+      <c r="W170" s="9"/>
+      <c r="X170" s="9"/>
+      <c r="Y170" s="9"/>
+      <c r="Z170" s="9"/>
+      <c r="AA170" s="9"/>
+      <c r="AB170" s="9"/>
+      <c r="AC170" s="9"/>
+      <c r="AD170" s="9"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F171" s="10">
+        <v>43174.0</v>
+      </c>
+      <c r="G171" s="10">
+        <v>43546.0</v>
+      </c>
+      <c r="H171" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I171" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J171" s="11">
+        <v>35.0</v>
+      </c>
+      <c r="K171" s="11">
+        <v>1000.0</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M171" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N171" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O171" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="P171" s="11">
+        <v>2050.0</v>
+      </c>
+      <c r="Q171" s="11">
+        <v>2050.0</v>
+      </c>
+      <c r="R171" s="9"/>
+      <c r="S171" s="9"/>
+      <c r="T171" s="9"/>
+      <c r="U171" s="9"/>
+      <c r="V171" s="9"/>
+      <c r="W171" s="9"/>
+      <c r="X171" s="9"/>
+      <c r="Y171" s="9"/>
+      <c r="Z171" s="9"/>
+      <c r="AA171" s="9"/>
+      <c r="AB171" s="9"/>
+      <c r="AC171" s="9"/>
+      <c r="AD171" s="9"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="7"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F172" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G172" s="8">
+        <v>43546.0</v>
+      </c>
+      <c r="H172" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J172" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K172" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L172" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M172" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N172" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O172" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P172" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q172" s="7">
+        <v>22.6</v>
+      </c>
+      <c r="R172" s="7"/>
+      <c r="S172" s="7"/>
+      <c r="T172" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="U172" s="7">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F173" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G173" s="8">
+        <v>43547.0</v>
+      </c>
+      <c r="H173" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J173" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K173" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L173" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M173" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N173" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O173" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P173" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q173" s="7">
+        <v>22.6</v>
+      </c>
+      <c r="R173" s="7"/>
+      <c r="S173" s="7"/>
+      <c r="T173" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="U173" s="7">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="7"/>
+      <c r="B174" s="7"/>
+      <c r="C174" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F174" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G174" s="8">
+        <v>43548.0</v>
+      </c>
+      <c r="H174" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J174" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K174" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L174" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M174" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N174" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O174" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P174" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q174" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="R174" s="7"/>
+      <c r="S174" s="7"/>
+      <c r="T174" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="U174" s="7">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F175" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G175" s="8">
+        <v>43549.0</v>
+      </c>
+      <c r="H175" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I175" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J175" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K175" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L175" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M175" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N175" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O175" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P175" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q175" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="R175" s="7"/>
+      <c r="S175" s="7"/>
+      <c r="T175" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="U175" s="7">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F176" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G176" s="8">
+        <v>43550.0</v>
+      </c>
+      <c r="H176" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J176" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K176" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L176" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M176" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N176" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O176" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P176" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q176" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="R176" s="7"/>
+      <c r="S176" s="7"/>
+      <c r="T176" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="U176" s="7">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F177" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G177" s="8">
+        <v>43551.0</v>
+      </c>
+      <c r="H177" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J177" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K177" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L177" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M177" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N177" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O177" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P177" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q177" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="R177" s="7"/>
+      <c r="S177" s="7"/>
+      <c r="T177" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="U177" s="7">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F178" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G178" s="8">
+        <v>43552.0</v>
+      </c>
+      <c r="H178" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I178" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J178" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K178" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L178" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M178" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N178" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O178" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P178" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q178" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="R178" s="7"/>
+      <c r="S178" s="7"/>
+      <c r="T178" s="7">
+        <v>1000.0</v>
+      </c>
+      <c r="U178" s="7">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F179" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G179" s="8">
+        <v>43546.0</v>
+      </c>
+      <c r="H179" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I179" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J179" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K179" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L179" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M179" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N179" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O179" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P179" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q179" s="7">
+        <v>22.6</v>
+      </c>
+      <c r="R179" s="7"/>
+      <c r="S179" s="7"/>
+      <c r="T179" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="U179" s="7">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F180" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G180" s="8">
+        <v>43547.0</v>
+      </c>
+      <c r="H180" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I180" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J180" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K180" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L180" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M180" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N180" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O180" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P180" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q180" s="7">
+        <v>22.6</v>
+      </c>
+      <c r="R180" s="7"/>
+      <c r="S180" s="7"/>
+      <c r="T180" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="U180" s="7">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F181" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G181" s="8">
+        <v>43548.0</v>
+      </c>
+      <c r="H181" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I181" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J181" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K181" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L181" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M181" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N181" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O181" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P181" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q181" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="R181" s="7"/>
+      <c r="S181" s="7"/>
+      <c r="T181" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="U181" s="7">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="A182" s="7"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F182" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G182" s="8">
+        <v>43549.0</v>
+      </c>
+      <c r="H182" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I182" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J182" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K182" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L182" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M182" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N182" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O182" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P182" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q182" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="R182" s="7"/>
+      <c r="S182" s="7"/>
+      <c r="T182" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="U182" s="7">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F183" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G183" s="8">
+        <v>43550.0</v>
+      </c>
+      <c r="H183" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I183" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J183" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K183" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L183" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M183" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N183" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O183" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P183" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q183" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="R183" s="7"/>
+      <c r="S183" s="7"/>
+      <c r="T183" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="U183" s="7">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="A184" s="7"/>
+      <c r="B184" s="7"/>
+      <c r="C184" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F184" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G184" s="8">
+        <v>43551.0</v>
+      </c>
+      <c r="H184" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I184" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J184" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K184" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L184" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M184" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N184" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O184" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P184" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q184" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="R184" s="7"/>
+      <c r="S184" s="7"/>
+      <c r="T184" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="U184" s="7">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="A185" s="7"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F185" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G185" s="8">
+        <v>43552.0</v>
+      </c>
+      <c r="H185" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I185" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J185" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K185" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L185" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M185" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N185" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O185" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P185" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q185" s="7">
+        <v>15.1</v>
+      </c>
+      <c r="R185" s="7"/>
+      <c r="S185" s="7"/>
+      <c r="T185" s="7">
+        <v>1000.0</v>
+      </c>
+      <c r="U185" s="7">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="D186" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F186" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G186" s="8">
+        <v>43546.0</v>
+      </c>
+      <c r="H186" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I186" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J186" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K186" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L186" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M186" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N186" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O186" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P186" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q186" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="R186" s="7"/>
+      <c r="S186" s="7"/>
+      <c r="T186" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="U186" s="7">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="D187" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F187" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G187" s="8">
+        <v>43547.0</v>
+      </c>
+      <c r="H187" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I187" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J187" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K187" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L187" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M187" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N187" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O187" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P187" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q187" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="R187" s="7"/>
+      <c r="S187" s="7"/>
+      <c r="T187" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="U187" s="7">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="D188" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F188" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G188" s="8">
+        <v>43548.0</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I188" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J188" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K188" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L188" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M188" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N188" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O188" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P188" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q188" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="R188" s="7"/>
+      <c r="S188" s="7"/>
+      <c r="T188" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="U188" s="7">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="D189" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F189" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G189" s="8">
+        <v>43549.0</v>
+      </c>
+      <c r="H189" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I189" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J189" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K189" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L189" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M189" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N189" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O189" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P189" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q189" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="R189" s="7"/>
+      <c r="S189" s="7"/>
+      <c r="T189" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="U189" s="7">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="D190" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F190" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G190" s="8">
+        <v>43550.0</v>
+      </c>
+      <c r="H190" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I190" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J190" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K190" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L190" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M190" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N190" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O190" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P190" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q190" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="R190" s="7"/>
+      <c r="S190" s="7"/>
+      <c r="T190" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="U190" s="7">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="D191" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F191" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G191" s="8">
+        <v>43551.0</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I191" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J191" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K191" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L191" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M191" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N191" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O191" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P191" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q191" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="R191" s="7"/>
+      <c r="S191" s="7"/>
+      <c r="T191" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="U191" s="7">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="D192" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F192" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G192" s="8">
+        <v>43552.0</v>
+      </c>
+      <c r="H192" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I192" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J192" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K192" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L192" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M192" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N192" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O192" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P192" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q192" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="R192" s="7"/>
+      <c r="S192" s="7"/>
+      <c r="T192" s="7">
+        <v>1000.0</v>
+      </c>
+      <c r="U192" s="7">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="D193" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F193" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G193" s="8">
+        <v>43546.0</v>
+      </c>
+      <c r="H193" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I193" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J193" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K193" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L193" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M193" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N193" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O193" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P193" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q193" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="R193" s="7"/>
+      <c r="S193" s="7"/>
+      <c r="T193" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="U193" s="7">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="D194" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F194" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G194" s="8">
+        <v>43547.0</v>
+      </c>
+      <c r="H194" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I194" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J194" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K194" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L194" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M194" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N194" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O194" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P194" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q194" s="12">
+        <v>25.75</v>
+      </c>
+      <c r="R194" s="7"/>
+      <c r="S194" s="7"/>
+      <c r="T194" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="U194" s="7">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="D195" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F195" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G195" s="8">
+        <v>43548.0</v>
+      </c>
+      <c r="H195" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I195" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J195" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K195" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L195" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M195" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N195" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O195" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P195" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q195" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R195" s="7"/>
+      <c r="S195" s="7"/>
+      <c r="T195" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="U195" s="7">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="D196" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F196" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G196" s="8">
+        <v>43549.0</v>
+      </c>
+      <c r="H196" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I196" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J196" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K196" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L196" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M196" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N196" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O196" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P196" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q196" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R196" s="7"/>
+      <c r="S196" s="7"/>
+      <c r="T196" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="U196" s="7">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="D197" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F197" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G197" s="8">
+        <v>43550.0</v>
+      </c>
+      <c r="H197" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I197" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J197" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K197" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L197" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M197" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N197" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O197" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P197" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q197" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R197" s="7"/>
+      <c r="S197" s="7"/>
+      <c r="T197" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="U197" s="7">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="D198" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F198" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G198" s="8">
+        <v>43551.0</v>
+      </c>
+      <c r="H198" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I198" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J198" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K198" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L198" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M198" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N198" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O198" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P198" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q198" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R198" s="7"/>
+      <c r="S198" s="7"/>
+      <c r="T198" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="U198" s="7">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="D199" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F199" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G199" s="8">
+        <v>43552.0</v>
+      </c>
+      <c r="H199" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I199" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J199" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K199" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L199" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M199" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N199" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O199" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P199" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q199" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R199" s="7"/>
+      <c r="S199" s="7"/>
+      <c r="T199" s="7">
+        <v>1000.0</v>
+      </c>
+      <c r="U199" s="7">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="D200" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F200" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G200" s="8">
+        <v>43546.0</v>
+      </c>
+      <c r="H200" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I200" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J200" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K200" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L200" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M200" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N200" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O200" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P200" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q200" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="R200" s="7"/>
+      <c r="S200" s="7"/>
+      <c r="T200" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="U200" s="7">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="D201" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F201" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G201" s="8">
+        <v>43547.0</v>
+      </c>
+      <c r="H201" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I201" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J201" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K201" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L201" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M201" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N201" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O201" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P201" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q201" s="12">
+        <v>25.75</v>
+      </c>
+      <c r="R201" s="7"/>
+      <c r="S201" s="7"/>
+      <c r="T201" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="U201" s="7">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="D202" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F202" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G202" s="8">
+        <v>43548.0</v>
+      </c>
+      <c r="H202" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I202" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J202" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K202" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L202" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M202" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N202" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O202" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P202" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q202" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R202" s="7"/>
+      <c r="S202" s="7"/>
+      <c r="T202" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="U202" s="7">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="D203" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F203" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G203" s="8">
+        <v>43549.0</v>
+      </c>
+      <c r="H203" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I203" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J203" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K203" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L203" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M203" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N203" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O203" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P203" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q203" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R203" s="7"/>
+      <c r="S203" s="7"/>
+      <c r="T203" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="U203" s="7">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="D204" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F204" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G204" s="8">
+        <v>43550.0</v>
+      </c>
+      <c r="H204" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I204" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J204" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K204" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L204" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M204" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N204" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O204" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P204" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q204" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R204" s="7"/>
+      <c r="S204" s="7"/>
+      <c r="T204" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="U204" s="7">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="D205" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F205" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G205" s="8">
+        <v>43551.0</v>
+      </c>
+      <c r="H205" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I205" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J205" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K205" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L205" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M205" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N205" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O205" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P205" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q205" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R205" s="7"/>
+      <c r="S205" s="7"/>
+      <c r="T205" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="U205" s="7">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="D206" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F206" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G206" s="8">
+        <v>43552.0</v>
+      </c>
+      <c r="H206" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I206" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J206" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K206" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L206" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M206" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N206" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O206" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P206" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q206" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R206" s="7"/>
+      <c r="S206" s="7"/>
+      <c r="T206" s="7">
+        <v>1000.0</v>
+      </c>
+      <c r="U206" s="7">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="D207" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F207" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G207" s="8">
+        <v>43546.0</v>
+      </c>
+      <c r="H207" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I207" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J207" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K207" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L207" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M207" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N207" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O207" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P207" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q207" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="R207" s="7"/>
+      <c r="S207" s="7"/>
+      <c r="T207" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="U207" s="7">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="D208" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F208" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G208" s="8">
+        <v>43547.0</v>
+      </c>
+      <c r="H208" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I208" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J208" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K208" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L208" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M208" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N208" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O208" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P208" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q208" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="R208" s="7"/>
+      <c r="S208" s="7"/>
+      <c r="T208" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="U208" s="7">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="D209" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F209" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G209" s="8">
+        <v>43548.0</v>
+      </c>
+      <c r="H209" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I209" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J209" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K209" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L209" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M209" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N209" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O209" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P209" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q209" s="12">
+        <v>19.1</v>
+      </c>
+      <c r="R209" s="7"/>
+      <c r="S209" s="7"/>
+      <c r="T209" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="U209" s="7">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="D210" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F210" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G210" s="8">
+        <v>43549.0</v>
+      </c>
+      <c r="H210" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I210" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J210" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K210" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L210" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M210" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N210" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O210" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P210" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q210" s="12">
+        <v>19.1</v>
+      </c>
+      <c r="R210" s="7"/>
+      <c r="S210" s="7"/>
+      <c r="T210" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="U210" s="7">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="D211" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F211" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G211" s="8">
+        <v>43550.0</v>
+      </c>
+      <c r="H211" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I211" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J211" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K211" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L211" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M211" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N211" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O211" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P211" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q211" s="12">
+        <v>17.8</v>
+      </c>
+      <c r="R211" s="7"/>
+      <c r="S211" s="7"/>
+      <c r="T211" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="U211" s="7">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="D212" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F212" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G212" s="8">
+        <v>43551.0</v>
+      </c>
+      <c r="H212" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I212" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J212" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K212" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L212" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M212" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N212" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O212" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P212" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q212" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="R212" s="7"/>
+      <c r="S212" s="7"/>
+      <c r="T212" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="U212" s="7">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="D213" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F213" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G213" s="8">
+        <v>43552.0</v>
+      </c>
+      <c r="H213" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I213" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J213" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K213" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L213" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M213" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N213" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O213" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P213" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q213" s="12">
+        <v>17.2</v>
+      </c>
+      <c r="R213" s="7"/>
+      <c r="S213" s="7"/>
+      <c r="T213" s="7">
+        <v>1000.0</v>
+      </c>
+      <c r="U213" s="7">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="D214" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F214" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G214" s="8">
+        <v>43546.0</v>
+      </c>
+      <c r="H214" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I214" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J214" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K214" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L214" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M214" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N214" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O214" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P214" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q214" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="R214" s="7"/>
+      <c r="S214" s="7"/>
+      <c r="T214" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="U214" s="7">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="D215" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F215" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G215" s="8">
+        <v>43547.0</v>
+      </c>
+      <c r="H215" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I215" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J215" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K215" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L215" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M215" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N215" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O215" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P215" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q215" s="12">
+        <v>15.0</v>
+      </c>
+      <c r="R215" s="7"/>
+      <c r="S215" s="7"/>
+      <c r="T215" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="U215" s="7">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="D216" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F216" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G216" s="8">
+        <v>43548.0</v>
+      </c>
+      <c r="H216" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I216" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J216" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K216" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L216" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M216" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N216" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O216" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P216" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q216" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="R216" s="7"/>
+      <c r="S216" s="7"/>
+      <c r="T216" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="U216" s="7">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="D217" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F217" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G217" s="8">
+        <v>43549.0</v>
+      </c>
+      <c r="H217" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I217" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J217" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K217" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L217" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M217" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N217" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O217" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P217" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q217" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="R217" s="7"/>
+      <c r="S217" s="7"/>
+      <c r="T217" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="U217" s="7">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="D218" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F218" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G218" s="8">
+        <v>43550.0</v>
+      </c>
+      <c r="H218" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I218" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J218" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K218" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L218" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M218" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N218" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O218" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P218" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q218" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="R218" s="7"/>
+      <c r="S218" s="7"/>
+      <c r="T218" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="U218" s="7">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="D219" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F219" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G219" s="8">
+        <v>43551.0</v>
+      </c>
+      <c r="H219" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I219" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J219" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K219" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L219" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M219" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N219" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O219" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P219" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q219" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="R219" s="7"/>
+      <c r="S219" s="7"/>
+      <c r="T219" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="U219" s="7">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="D220" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F220" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G220" s="8">
+        <v>43552.0</v>
+      </c>
+      <c r="H220" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I220" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J220" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K220" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L220" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M220" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N220" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O220" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P220" s="7">
+        <v>600.0</v>
+      </c>
+      <c r="Q220" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="R220" s="7"/>
+      <c r="S220" s="7"/>
+      <c r="T220" s="7">
+        <v>1000.0</v>
+      </c>
+      <c r="U220" s="7">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="D221" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F221" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G221" s="8">
+        <v>43546.0</v>
+      </c>
+      <c r="H221" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I221" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J221" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K221" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L221" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M221" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N221" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O221" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P221" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q221" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="R221" s="7"/>
+      <c r="S221" s="7"/>
+      <c r="T221" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="U221" s="7">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="D222" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F222" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G222" s="8">
+        <v>43547.0</v>
+      </c>
+      <c r="H222" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I222" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J222" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K222" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L222" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M222" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N222" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O222" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P222" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q222" s="12">
+        <v>25.75</v>
+      </c>
+      <c r="R222" s="7"/>
+      <c r="S222" s="7"/>
+      <c r="T222" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="U222" s="7">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="D223" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F223" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G223" s="8">
+        <v>43548.0</v>
+      </c>
+      <c r="H223" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I223" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J223" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K223" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L223" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M223" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N223" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O223" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P223" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q223" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R223" s="7"/>
+      <c r="S223" s="7"/>
+      <c r="T223" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="U223" s="7">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="D224" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F224" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G224" s="8">
+        <v>43549.0</v>
+      </c>
+      <c r="H224" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I224" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J224" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K224" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L224" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M224" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N224" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O224" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P224" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q224" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R224" s="7"/>
+      <c r="S224" s="7"/>
+      <c r="T224" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="U224" s="7">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="D225" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F225" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G225" s="8">
+        <v>43550.0</v>
+      </c>
+      <c r="H225" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I225" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J225" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K225" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L225" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M225" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N225" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O225" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P225" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q225" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R225" s="7"/>
+      <c r="S225" s="7"/>
+      <c r="T225" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="U225" s="7">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="D226" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F226" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G226" s="8">
+        <v>43551.0</v>
+      </c>
+      <c r="H226" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I226" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J226" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K226" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L226" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M226" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N226" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O226" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P226" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q226" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R226" s="7"/>
+      <c r="S226" s="7"/>
+      <c r="T226" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="U226" s="7">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="D227" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F227" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G227" s="8">
+        <v>43552.0</v>
+      </c>
+      <c r="H227" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I227" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J227" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K227" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L227" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M227" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N227" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O227" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P227" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q227" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R227" s="7"/>
+      <c r="S227" s="7"/>
+      <c r="T227" s="7">
+        <v>1000.0</v>
+      </c>
+      <c r="U227" s="7">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="D228" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F228" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G228" s="8">
+        <v>43546.0</v>
+      </c>
+      <c r="H228" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I228" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J228" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K228" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L228" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M228" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N228" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O228" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P228" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q228" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="R228" s="7"/>
+      <c r="S228" s="7"/>
+      <c r="T228" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="U228" s="7">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="D229" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F229" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G229" s="8">
+        <v>43547.0</v>
+      </c>
+      <c r="H229" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I229" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J229" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K229" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L229" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M229" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N229" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O229" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P229" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q229" s="12">
+        <v>25.75</v>
+      </c>
+      <c r="R229" s="7"/>
+      <c r="S229" s="7"/>
+      <c r="T229" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="U229" s="7">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="D230" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F230" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G230" s="8">
+        <v>43548.0</v>
+      </c>
+      <c r="H230" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I230" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J230" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K230" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L230" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M230" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N230" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O230" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P230" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q230" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R230" s="7"/>
+      <c r="S230" s="7"/>
+      <c r="T230" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="U230" s="7">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="D231" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F231" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G231" s="8">
+        <v>43549.0</v>
+      </c>
+      <c r="H231" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I231" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J231" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K231" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L231" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M231" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N231" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O231" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P231" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q231" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R231" s="7"/>
+      <c r="S231" s="7"/>
+      <c r="T231" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="U231" s="7">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="D232" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F232" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G232" s="8">
+        <v>43550.0</v>
+      </c>
+      <c r="H232" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I232" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J232" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K232" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L232" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M232" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N232" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O232" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P232" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q232" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R232" s="7"/>
+      <c r="S232" s="7"/>
+      <c r="T232" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="U232" s="7">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="D233" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F233" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G233" s="8">
+        <v>43551.0</v>
+      </c>
+      <c r="H233" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I233" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J233" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K233" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L233" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M233" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N233" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O233" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P233" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q233" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R233" s="7"/>
+      <c r="S233" s="7"/>
+      <c r="T233" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="U233" s="7">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="D234" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F234" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G234" s="8">
+        <v>43552.0</v>
+      </c>
+      <c r="H234" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I234" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J234" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K234" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L234" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M234" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N234" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O234" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P234" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q234" s="12">
+        <v>18.6</v>
+      </c>
+      <c r="R234" s="7"/>
+      <c r="S234" s="7"/>
+      <c r="T234" s="7">
+        <v>1000.0</v>
+      </c>
+      <c r="U234" s="7">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="D235" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F235" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G235" s="8">
+        <v>43546.0</v>
+      </c>
+      <c r="H235" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I235" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J235" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K235" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L235" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M235" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N235" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O235" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P235" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q235" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="R235" s="7"/>
+      <c r="S235" s="7"/>
+      <c r="T235" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="U235" s="7">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="D236" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F236" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G236" s="8">
+        <v>43547.0</v>
+      </c>
+      <c r="H236" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I236" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J236" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K236" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L236" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M236" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N236" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O236" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P236" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q236" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="R236" s="7"/>
+      <c r="S236" s="7"/>
+      <c r="T236" s="7">
+        <v>45.0</v>
+      </c>
+      <c r="U236" s="7">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="D237" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F237" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G237" s="8">
+        <v>43548.0</v>
+      </c>
+      <c r="H237" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I237" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J237" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K237" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L237" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M237" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N237" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O237" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P237" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q237" s="12">
+        <v>19.1</v>
+      </c>
+      <c r="R237" s="7"/>
+      <c r="S237" s="7"/>
+      <c r="T237" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="U237" s="7">
+        <v>249.0</v>
+      </c>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="D238" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F238" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G238" s="8">
+        <v>43549.0</v>
+      </c>
+      <c r="H238" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I238" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J238" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K238" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L238" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M238" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N238" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O238" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P238" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q238" s="12">
+        <v>19.1</v>
+      </c>
+      <c r="R238" s="7"/>
+      <c r="S238" s="7"/>
+      <c r="T238" s="7">
+        <v>250.0</v>
+      </c>
+      <c r="U238" s="7">
+        <v>299.0</v>
+      </c>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="D239" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F239" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G239" s="8">
+        <v>43550.0</v>
+      </c>
+      <c r="H239" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I239" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J239" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K239" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L239" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M239" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N239" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O239" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P239" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q239" s="12">
+        <v>17.8</v>
+      </c>
+      <c r="R239" s="7"/>
+      <c r="S239" s="7"/>
+      <c r="T239" s="7">
+        <v>300.0</v>
+      </c>
+      <c r="U239" s="7">
+        <v>499.0</v>
+      </c>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="D240" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F240" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G240" s="8">
+        <v>43551.0</v>
+      </c>
+      <c r="H240" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I240" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J240" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K240" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L240" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M240" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N240" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O240" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P240" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q240" s="12">
+        <v>17.5</v>
+      </c>
+      <c r="R240" s="7"/>
+      <c r="S240" s="7"/>
+      <c r="T240" s="7">
+        <v>500.0</v>
+      </c>
+      <c r="U240" s="7">
+        <v>999.0</v>
+      </c>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="D241" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F241" s="5">
+        <v>43174.0</v>
+      </c>
+      <c r="G241" s="8">
+        <v>43552.0</v>
+      </c>
+      <c r="H241" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I241" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J241" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="K241" s="7">
+        <v>167.0</v>
+      </c>
+      <c r="L241" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M241" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N241" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O241" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P241" s="12">
+        <v>720.0</v>
+      </c>
+      <c r="Q241" s="12">
+        <v>17.2</v>
+      </c>
+      <c r="R241" s="7"/>
+      <c r="S241" s="7"/>
+      <c r="T241" s="7">
+        <v>1000.0</v>
+      </c>
+      <c r="U241" s="7">
+        <v>1500.0</v>
+      </c>
+    </row>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
     <row r="244" ht="15.75" customHeight="1"/>
